--- a/SpousteciAdresar/example.xlsx
+++ b/SpousteciAdresar/example.xlsx
@@ -7,12 +7,15 @@
   <sheets>
     <sheet name="Predmety" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Predmety'!$A$1:$G$1</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t xml:space="preserve">podíl pracoviště učitele 
 (v procentech)</t>
@@ -33,6 +36,9 @@
     <t>typ</t>
   </si>
   <si>
+    <t>Semestr</t>
+  </si>
+  <si>
     <t>KCH</t>
   </si>
   <si>
@@ -48,6 +54,9 @@
     <t>Př</t>
   </si>
   <si>
+    <t>ZS/LS</t>
+  </si>
+  <si>
     <t>KMA</t>
   </si>
   <si>
@@ -75,6 +84,9 @@
     <t>Ornitologie</t>
   </si>
   <si>
+    <t>LS</t>
+  </si>
+  <si>
     <t>KBI/N041</t>
   </si>
   <si>
@@ -117,6 +129,9 @@
     <t>Poč. mod. - mechanika tekutin</t>
   </si>
   <si>
+    <t>ZS</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ryšánek Petr, </t>
   </si>
   <si>
@@ -405,15 +420,15 @@
     <t>Analytická chemie životního prostředí</t>
   </si>
   <si>
+    <t xml:space="preserve">Richter Miroslav, </t>
+  </si>
+  <si>
     <t>KCH/P414</t>
   </si>
   <si>
     <t>Technologie ochrany životního prostředí</t>
   </si>
   <si>
-    <t xml:space="preserve">Richter Miroslav, </t>
-  </si>
-  <si>
     <t>KPRF</t>
   </si>
   <si>
@@ -444,13 +459,16 @@
     <t xml:space="preserve">Škvor Jiří, Babichev Sergii, </t>
   </si>
   <si>
+    <t>KMA/P338</t>
+  </si>
+  <si>
+    <t>Numerická matematika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kubera Petr, </t>
+  </si>
+  <si>
     <t>KMA/P601</t>
-  </si>
-  <si>
-    <t>Numerická matematika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kubera Petr, </t>
   </si>
   <si>
     <t>KCJ</t>
@@ -568,18 +586,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6288125174386" customWidth="1"/>
-    <col min="2" max="2" width="16.948968069894" customWidth="1"/>
+    <col min="1" max="1" width="23.8788125174386" customWidth="1"/>
+    <col min="2" max="2" width="19.198968069894" customWidth="1"/>
     <col min="3" max="3" width="44.1471601213728" customWidth="1"/>
     <col min="4" max="4" width="12.3390350341797" customWidth="1"/>
     <col min="5" max="5" width="40.0334123883929" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="6" max="6" width="6.49658911568778" customWidth="1"/>
+    <col min="7" max="7" width="10.84563936506" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -601,1436 +620,1685 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="5">
+      <c r="A5" s="0">
+        <v>0</v>
+      </c>
       <c r="B5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
       <c r="D6" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="0">
+        <v>0</v>
+      </c>
       <c r="B7" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="0">
+        <v>0</v>
+      </c>
       <c r="B10" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="0">
+        <v>0</v>
+      </c>
       <c r="B12" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="0">
+        <v>0</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15">
+      <c r="A15" s="0">
+        <v>0</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16" s="0">
+        <v>0</v>
+      </c>
       <c r="B16" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
+      <c r="A17" s="0">
+        <v>0</v>
+      </c>
       <c r="B17" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="0">
+        <v>0</v>
+      </c>
       <c r="B21" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="0">
+        <v>0</v>
+      </c>
       <c r="B29" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="0">
+        <v>0</v>
+      </c>
       <c r="B32" s="0" t="s">
-        <v>11</v>
+        <v>80</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" s="0" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="0">
+        <v>0</v>
+      </c>
       <c r="B34" s="0" t="s">
-        <v>11</v>
+        <v>86</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>0</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0">
+        <v>0</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0">
+        <v>0</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0">
+        <v>0</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0">
+        <v>0</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G46" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F34" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F35" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D36" s="0" t="s">
+    </row>
+    <row r="47">
+      <c r="A47" s="0">
+        <v>0</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="0">
+        <v>0</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="0">
+        <v>0</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0">
+        <v>0</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0">
+        <v>0</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="0">
+        <v>0</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0">
+        <v>0</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="0">
+        <v>0</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F36" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F38" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F39" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F40" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F41" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F42" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="B44" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F44" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F45" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F46" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F47" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="B48" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F48" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F51" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="B52" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>115</v>
-      </c>
       <c r="D54" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="55">
+      <c r="A55" s="0">
+        <v>0</v>
+      </c>
       <c r="B55" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="G55" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" s="0" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="D56" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="0">
+        <v>0</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0">
+        <v>0</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0">
+        <v>0</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0">
+        <v>0</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="E56" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="B58" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F58" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F59" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="B60" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>122</v>
-      </c>
       <c r="D60" s="0" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="61">
+      <c r="A61" s="0">
+        <v>0</v>
+      </c>
       <c r="B61" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="62">
+      <c r="A62" s="0">
+        <v>0</v>
+      </c>
       <c r="B62" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="0" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>15</v>
+        <v>141</v>
+      </c>
+      <c r="G63" s="0" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" s="0" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>10</v>
+        <v>141</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>137</v>
+        <v>11</v>
+      </c>
+      <c r="G65" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" s="0" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>137</v>
+        <v>11</v>
+      </c>
+      <c r="G67" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="0" t="s">
-        <v>11</v>
+        <v>145</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>137</v>
+        <v>17</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69" s="0">
+        <v>0</v>
+      </c>
       <c r="B69" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="F69" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
+        <v>0</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="F70" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>0</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C71" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="F71" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G71" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>0</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="F72" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>0</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="E73" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="F73" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G73" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>0</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="F74" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>0</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C75" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D75" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E75" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F75" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>0</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="D76" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="E76" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="F76" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="D69" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E69" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F69" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="B70" s="0" t="s">
+      <c r="G76" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>0</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="C77" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="E77" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="F77" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="C70" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="F70" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D71" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F71" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="B72" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C72" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D72" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F72" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D73" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E73" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F73" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="B74" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D76" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="F76" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E77" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="B78" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D78" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="E78" s="0" t="s">
-        <v>153</v>
-      </c>
-      <c r="F78" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="E79" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="B80" s="0" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="B82" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E82" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="E83" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="B84" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>167</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>137</v>
+      <c r="G77" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1"/>
+  <dataValidations count="1">
+    <dataValidation type="whole" sqref="A1:A1048576" errorStyle="stop" promptTitle="Sem napiš % podíl na výuce" prompt="Hodnota musí být od 0 do 100" showInputMessage="1" errorTitle="Vložil/a si neplatnou hodnotu" error="Hodnota musí být od 0 do 100.&#10;Pokud omylem píšeš do špatné buňky tak vyplň nějaký platný údaj pak klikni na buňku a zmáčkni klávesu delete  " showErrorMessage="1" operator="between">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
   <headerFooter/>
 </worksheet>
 </file>